--- a/Jogos_do_Dia/2023-10-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>1.5</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>27.83</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>9.43</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="M2" t="n">
         <v>1.2</v>
@@ -718,10 +718,10 @@
         <v>5.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T2" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -763,34 +763,34 @@
         <v>1.45</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-10-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>1.5</v>
       </c>
       <c r="J2" t="n">
-        <v>27.83</v>
+        <v>8.58</v>
       </c>
       <c r="K2" t="n">
-        <v>9.43</v>
+        <v>5.08</v>
       </c>
       <c r="L2" t="n">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="M2" t="n">
         <v>1.2</v>
@@ -718,10 +718,10 @@
         <v>5.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="T2" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
